--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.532215</v>
+        <v>57.568617</v>
       </c>
       <c r="H2">
-        <v>109.06443</v>
+        <v>115.137234</v>
       </c>
       <c r="I2">
-        <v>0.1866621762463068</v>
+        <v>0.1714026711775543</v>
       </c>
       <c r="J2">
-        <v>0.1412452311742988</v>
+        <v>0.1293816373312546</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.353591</v>
+        <v>22.8952465</v>
       </c>
       <c r="N2">
-        <v>34.707182</v>
+        <v>45.790493</v>
       </c>
       <c r="O2">
-        <v>0.1565740307431703</v>
+        <v>0.1813813436108351</v>
       </c>
       <c r="P2">
-        <v>0.1172025721985097</v>
+        <v>0.1358083239688437</v>
       </c>
       <c r="Q2">
-        <v>946.3297554340651</v>
+        <v>1318.04767687909</v>
       </c>
       <c r="R2">
-        <v>3785.31902173626</v>
+        <v>5272.190707516362</v>
       </c>
       <c r="S2">
-        <v>0.0292264493221763</v>
+        <v>0.03108924679667096</v>
       </c>
       <c r="T2">
-        <v>0.01655430440440095</v>
+        <v>0.01757110331830246</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.532215</v>
+        <v>57.568617</v>
       </c>
       <c r="H3">
-        <v>109.06443</v>
+        <v>115.137234</v>
       </c>
       <c r="I3">
-        <v>0.1866621762463068</v>
+        <v>0.1714026711775543</v>
       </c>
       <c r="J3">
-        <v>0.1412452311742988</v>
+        <v>0.1293816373312546</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>62.005139</v>
       </c>
       <c r="O3">
-        <v>0.1864819513920883</v>
+        <v>0.1637395987066077</v>
       </c>
       <c r="P3">
-        <v>0.2093849561259721</v>
+        <v>0.1838987408378675</v>
       </c>
       <c r="Q3">
-        <v>1127.092523684295</v>
+        <v>1189.850033040921</v>
       </c>
       <c r="R3">
-        <v>6762.55514210577</v>
+        <v>7139.100198245526</v>
       </c>
       <c r="S3">
-        <v>0.0348091268775052</v>
+        <v>0.02806540459585337</v>
       </c>
       <c r="T3">
-        <v>0.02957462653243334</v>
+        <v>0.02379312019275934</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.532215</v>
+        <v>57.568617</v>
       </c>
       <c r="H4">
-        <v>109.06443</v>
+        <v>115.137234</v>
       </c>
       <c r="I4">
-        <v>0.1866621762463068</v>
+        <v>0.1714026711775543</v>
       </c>
       <c r="J4">
-        <v>0.1412452311742988</v>
+        <v>0.1293816373312546</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.84714766666667</v>
+        <v>19.627353</v>
       </c>
       <c r="N4">
-        <v>62.541443</v>
+        <v>58.882059</v>
       </c>
       <c r="O4">
-        <v>0.1880948986102114</v>
+        <v>0.1554923489757647</v>
       </c>
       <c r="P4">
-        <v>0.2111959993930501</v>
+        <v>0.1746361137589099</v>
       </c>
       <c r="Q4">
-        <v>1136.841138695415</v>
+        <v>1129.919567580801</v>
       </c>
       <c r="R4">
-        <v>6821.04683217249</v>
+        <v>6779.517405484806</v>
       </c>
       <c r="S4">
-        <v>0.03511020311541047</v>
+        <v>0.02665180396211852</v>
       </c>
       <c r="T4">
-        <v>0.02983042775735842</v>
+        <v>0.022594706335295</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>54.532215</v>
+        <v>57.568617</v>
       </c>
       <c r="H5">
-        <v>109.06443</v>
+        <v>115.137234</v>
       </c>
       <c r="I5">
-        <v>0.1866621762463068</v>
+        <v>0.1714026711775543</v>
       </c>
       <c r="J5">
-        <v>0.1412452311742988</v>
+        <v>0.1293816373312546</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.015954</v>
+        <v>18.6161415</v>
       </c>
       <c r="N5">
-        <v>38.031908</v>
+        <v>37.232283</v>
       </c>
       <c r="O5">
-        <v>0.1715728212222307</v>
+        <v>0.1474813017680079</v>
       </c>
       <c r="P5">
-        <v>0.1284298288238175</v>
+        <v>0.110425846512805</v>
       </c>
       <c r="Q5">
-        <v>1036.98209195811</v>
+        <v>1071.705520031305</v>
       </c>
       <c r="R5">
-        <v>4147.92836783244</v>
+        <v>4286.822080125222</v>
       </c>
       <c r="S5">
-        <v>0.0320261561940601</v>
+        <v>0.02527868907177952</v>
       </c>
       <c r="T5">
-        <v>0.01814010086189572</v>
+        <v>0.01428707682551652</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.532215</v>
+        <v>57.568617</v>
       </c>
       <c r="H6">
-        <v>109.06443</v>
+        <v>115.137234</v>
       </c>
       <c r="I6">
-        <v>0.1866621762463068</v>
+        <v>0.1714026711775543</v>
       </c>
       <c r="J6">
-        <v>0.1412452311742988</v>
+        <v>0.1293816373312546</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.20871066666667</v>
+        <v>26.16739966666667</v>
       </c>
       <c r="N6">
-        <v>39.626132</v>
+        <v>78.502199</v>
       </c>
       <c r="O6">
-        <v>0.1191765479548473</v>
+        <v>0.2073040842928561</v>
       </c>
       <c r="P6">
-        <v>0.1338133587646982</v>
+        <v>0.2328267589095107</v>
       </c>
       <c r="Q6">
-        <v>720.30024994746</v>
+        <v>1506.421009296261</v>
       </c>
       <c r="R6">
-        <v>4321.80149968476</v>
+        <v>9038.526055777567</v>
       </c>
       <c r="S6">
-        <v>0.02224575379877414</v>
+        <v>0.03553247379381241</v>
       </c>
       <c r="T6">
-        <v>0.01890049879292918</v>
+        <v>0.03012350728224176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.532215</v>
+        <v>57.568617</v>
       </c>
       <c r="H7">
-        <v>109.06443</v>
+        <v>115.137234</v>
       </c>
       <c r="I7">
-        <v>0.1866621762463068</v>
+        <v>0.1714026711775543</v>
       </c>
       <c r="J7">
-        <v>0.1412452311742988</v>
+        <v>0.1293816373312546</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.739354</v>
+        <v>18.25261</v>
       </c>
       <c r="N7">
-        <v>59.218062</v>
+        <v>54.75783</v>
       </c>
       <c r="O7">
-        <v>0.178099750077452</v>
+        <v>0.1446013226459285</v>
       </c>
       <c r="P7">
-        <v>0.1999732846939525</v>
+        <v>0.1624042160120632</v>
       </c>
       <c r="Q7">
-        <v>1076.43069628911</v>
+        <v>1050.77751434037</v>
       </c>
       <c r="R7">
-        <v>6458.58417773466</v>
+        <v>6304.665086042221</v>
       </c>
       <c r="S7">
-        <v>0.03324448693838054</v>
+        <v>0.02478505295731951</v>
       </c>
       <c r="T7">
-        <v>0.02824527282528118</v>
+        <v>0.02101212337713949</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>141.213848</v>
       </c>
       <c r="I8">
-        <v>0.1611236231879644</v>
+        <v>0.1401482961597006</v>
       </c>
       <c r="J8">
-        <v>0.1828807302781694</v>
+        <v>0.158684365025539</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.353591</v>
+        <v>22.8952465</v>
       </c>
       <c r="N8">
-        <v>34.707182</v>
+        <v>45.790493</v>
       </c>
       <c r="O8">
-        <v>0.1565740307431703</v>
+        <v>0.1813813436108351</v>
       </c>
       <c r="P8">
-        <v>0.1172025721985097</v>
+        <v>0.1358083239688437</v>
       </c>
       <c r="Q8">
-        <v>816.8557872427226</v>
+        <v>1077.708619724511</v>
       </c>
       <c r="R8">
-        <v>4901.134723456335</v>
+        <v>6466.251718347063</v>
       </c>
       <c r="S8">
-        <v>0.02522777513048331</v>
+        <v>0.02542028626221574</v>
       </c>
       <c r="T8">
-        <v>0.02143409199414333</v>
+        <v>0.02155065765417865</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>141.213848</v>
       </c>
       <c r="I9">
-        <v>0.1611236231879644</v>
+        <v>0.1401482961597006</v>
       </c>
       <c r="J9">
-        <v>0.1828807302781694</v>
+        <v>0.158684365025539</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>62.005139</v>
       </c>
       <c r="O9">
-        <v>0.1864819513920883</v>
+        <v>0.1637395987066077</v>
       </c>
       <c r="P9">
-        <v>0.2093849561259721</v>
+        <v>0.1838987408378675</v>
       </c>
       <c r="Q9">
         <v>972.8871415516523</v>
@@ -1013,10 +1013,10 @@
         <v>8755.98427396487</v>
       </c>
       <c r="S9">
-        <v>0.03004664766745512</v>
+        <v>0.02294782577260418</v>
       </c>
       <c r="T9">
-        <v>0.03829247368558023</v>
+        <v>0.02918185491885316</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>141.213848</v>
       </c>
       <c r="I10">
-        <v>0.1611236231879644</v>
+        <v>0.1401482961597006</v>
       </c>
       <c r="J10">
-        <v>0.1828807302781694</v>
+        <v>0.158684365025539</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.84714766666667</v>
+        <v>19.627353</v>
       </c>
       <c r="N10">
-        <v>62.541443</v>
+        <v>58.882059</v>
       </c>
       <c r="O10">
-        <v>0.1880948986102114</v>
+        <v>0.1554923489757647</v>
       </c>
       <c r="P10">
-        <v>0.2111959993930501</v>
+        <v>0.1746361137589099</v>
       </c>
       <c r="Q10">
-        <v>981.3019806114071</v>
+        <v>923.8846810614478</v>
       </c>
       <c r="R10">
-        <v>8831.717825502663</v>
+        <v>8314.962129553031</v>
       </c>
       <c r="S10">
-        <v>0.03030653156725006</v>
+        <v>0.02179198777482299</v>
       </c>
       <c r="T10">
-        <v>0.03862367860082881</v>
+        <v>0.02771202082236042</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>141.213848</v>
       </c>
       <c r="I11">
-        <v>0.1611236231879644</v>
+        <v>0.1401482961597006</v>
       </c>
       <c r="J11">
-        <v>0.1828807302781694</v>
+        <v>0.158684365025539</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.015954</v>
+        <v>18.6161415</v>
       </c>
       <c r="N11">
-        <v>38.031908</v>
+        <v>37.232283</v>
       </c>
       <c r="O11">
-        <v>0.1715728212222307</v>
+        <v>0.1474813017680079</v>
       </c>
       <c r="P11">
-        <v>0.1284298288238175</v>
+        <v>0.110425846512805</v>
       </c>
       <c r="Q11">
-        <v>895.1053459103306</v>
+        <v>876.2856587091638</v>
       </c>
       <c r="R11">
-        <v>5370.632075461984</v>
+        <v>5257.713952254982</v>
       </c>
       <c r="S11">
-        <v>0.02764443459590667</v>
+        <v>0.02066925315820095</v>
       </c>
       <c r="T11">
-        <v>0.02348734088480002</v>
+        <v>0.01752285533629209</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>141.213848</v>
       </c>
       <c r="I12">
-        <v>0.1611236231879644</v>
+        <v>0.1401482961597006</v>
       </c>
       <c r="J12">
-        <v>0.1828807302781694</v>
+        <v>0.158684365025539</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.20871066666667</v>
+        <v>26.16739966666667</v>
       </c>
       <c r="N12">
-        <v>39.626132</v>
+        <v>78.502199</v>
       </c>
       <c r="O12">
-        <v>0.1191765479548473</v>
+        <v>0.2073040842928561</v>
       </c>
       <c r="P12">
-        <v>0.1338133587646982</v>
+        <v>0.2328267589095107</v>
       </c>
       <c r="Q12">
-        <v>621.7509534528817</v>
+        <v>1231.733066361306</v>
       </c>
       <c r="R12">
-        <v>5595.758581075936</v>
+        <v>11085.59759725175</v>
       </c>
       <c r="S12">
-        <v>0.01920215720551919</v>
+        <v>0.02905331420059074</v>
       </c>
       <c r="T12">
-        <v>0.02447188477186268</v>
+        <v>0.03694596639850997</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>141.213848</v>
       </c>
       <c r="I13">
-        <v>0.1611236231879644</v>
+        <v>0.1401482961597006</v>
       </c>
       <c r="J13">
-        <v>0.1828807302781694</v>
+        <v>0.158684365025539</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.739354</v>
+        <v>18.25261</v>
       </c>
       <c r="N13">
-        <v>59.218062</v>
+        <v>54.75783</v>
       </c>
       <c r="O13">
-        <v>0.178099750077452</v>
+        <v>0.1446013226459285</v>
       </c>
       <c r="P13">
-        <v>0.1999732846939525</v>
+        <v>0.1624042160120632</v>
       </c>
       <c r="Q13">
-        <v>929.1567117913974</v>
+        <v>859.1737647144266</v>
       </c>
       <c r="R13">
-        <v>8362.410406122575</v>
+        <v>7732.563882429838</v>
       </c>
       <c r="S13">
-        <v>0.02869607702135001</v>
+        <v>0.02026562899126601</v>
       </c>
       <c r="T13">
-        <v>0.0365712603409543</v>
+        <v>0.02577100989534473</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>55.86633166666667</v>
+        <v>61.05023333333333</v>
       </c>
       <c r="H14">
-        <v>167.598995</v>
+        <v>183.1507</v>
       </c>
       <c r="I14">
-        <v>0.1912288185579471</v>
+        <v>0.1817687068867105</v>
       </c>
       <c r="J14">
-        <v>0.2170511393435526</v>
+        <v>0.2058095076729514</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.353591</v>
+        <v>22.8952465</v>
       </c>
       <c r="N14">
-        <v>34.707182</v>
+        <v>45.790493</v>
       </c>
       <c r="O14">
-        <v>0.1565740307431703</v>
+        <v>0.1813813436108351</v>
       </c>
       <c r="P14">
-        <v>0.1172025721985097</v>
+        <v>0.1358083239688437</v>
       </c>
       <c r="Q14">
-        <v>969.4814704136818</v>
+        <v>1397.760141049183</v>
       </c>
       <c r="R14">
-        <v>5816.88882248209</v>
+        <v>8386.5608462951</v>
       </c>
       <c r="S14">
-        <v>0.02994146691587214</v>
+        <v>0.0329694522815156</v>
       </c>
       <c r="T14">
-        <v>0.02543895182968152</v>
+        <v>0.02795064429391641</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>55.86633166666667</v>
+        <v>61.05023333333333</v>
       </c>
       <c r="H15">
-        <v>167.598995</v>
+        <v>183.1507</v>
       </c>
       <c r="I15">
-        <v>0.1912288185579471</v>
+        <v>0.1817687068867105</v>
       </c>
       <c r="J15">
-        <v>0.2170511393435526</v>
+        <v>0.2058095076729514</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>62.005139</v>
       </c>
       <c r="O15">
-        <v>0.1864819513920883</v>
+        <v>0.1637395987066077</v>
       </c>
       <c r="P15">
-        <v>0.2093849561259721</v>
+        <v>0.1838987408378675</v>
       </c>
       <c r="Q15">
-        <v>1154.666553470589</v>
+        <v>1261.809401271922</v>
       </c>
       <c r="R15">
-        <v>10391.99898123531</v>
+        <v>11356.2846114473</v>
       </c>
       <c r="S15">
-        <v>0.03566072324708957</v>
+        <v>0.02976273512304897</v>
       </c>
       <c r="T15">
-        <v>0.04544724328854203</v>
+        <v>0.03784810931351719</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>55.86633166666667</v>
+        <v>61.05023333333333</v>
       </c>
       <c r="H16">
-        <v>167.598995</v>
+        <v>183.1507</v>
       </c>
       <c r="I16">
-        <v>0.1912288185579471</v>
+        <v>0.1817687068867105</v>
       </c>
       <c r="J16">
-        <v>0.2170511393435526</v>
+        <v>0.2058095076729514</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.84714766666667</v>
+        <v>19.627353</v>
       </c>
       <c r="N16">
-        <v>62.541443</v>
+        <v>58.882059</v>
       </c>
       <c r="O16">
-        <v>0.1880948986102114</v>
+        <v>0.1554923489757647</v>
       </c>
       <c r="P16">
-        <v>0.2111959993930501</v>
+        <v>0.1746361137589099</v>
       </c>
       <c r="Q16">
-        <v>1164.653665849976</v>
+        <v>1198.2544803657</v>
       </c>
       <c r="R16">
-        <v>10481.88299264979</v>
+        <v>10784.2903232913</v>
       </c>
       <c r="S16">
-        <v>0.03596916523800757</v>
+        <v>0.02826364320410187</v>
       </c>
       <c r="T16">
-        <v>0.04584033229306177</v>
+        <v>0.03594177259463879</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>55.86633166666667</v>
+        <v>61.05023333333333</v>
       </c>
       <c r="H17">
-        <v>167.598995</v>
+        <v>183.1507</v>
       </c>
       <c r="I17">
-        <v>0.1912288185579471</v>
+        <v>0.1817687068867105</v>
       </c>
       <c r="J17">
-        <v>0.2170511393435526</v>
+        <v>0.2058095076729514</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.015954</v>
+        <v>18.6161415</v>
       </c>
       <c r="N17">
-        <v>38.031908</v>
+        <v>37.232283</v>
       </c>
       <c r="O17">
-        <v>0.1715728212222307</v>
+        <v>0.1474813017680079</v>
       </c>
       <c r="P17">
-        <v>0.1284298288238175</v>
+        <v>0.110425846512805</v>
       </c>
       <c r="Q17">
-        <v>1062.351593122077</v>
+        <v>1136.51978234135</v>
       </c>
       <c r="R17">
-        <v>6374.109558732461</v>
+        <v>6819.118694048099</v>
       </c>
       <c r="S17">
-        <v>0.03280966789898105</v>
+        <v>0.02680748551233952</v>
       </c>
       <c r="T17">
-        <v>0.02787584067190702</v>
+        <v>0.02272668910516929</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>55.86633166666667</v>
+        <v>61.05023333333333</v>
       </c>
       <c r="H18">
-        <v>167.598995</v>
+        <v>183.1507</v>
       </c>
       <c r="I18">
-        <v>0.1912288185579471</v>
+        <v>0.1817687068867105</v>
       </c>
       <c r="J18">
-        <v>0.2170511393435526</v>
+        <v>0.2058095076729514</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.20871066666667</v>
+        <v>26.16739966666667</v>
       </c>
       <c r="N18">
-        <v>39.626132</v>
+        <v>78.502199</v>
       </c>
       <c r="O18">
-        <v>0.1191765479548473</v>
+        <v>0.2073040842928561</v>
       </c>
       <c r="P18">
-        <v>0.1338133587646982</v>
+        <v>0.2328267589095107</v>
       </c>
       <c r="Q18">
-        <v>737.9222109930378</v>
+        <v>1597.525855376589</v>
       </c>
       <c r="R18">
-        <v>6641.29989893734</v>
+        <v>14377.7326983893</v>
       </c>
       <c r="S18">
-        <v>0.02278999046521999</v>
+        <v>0.03768139533424607</v>
       </c>
       <c r="T18">
-        <v>0.02904434197926531</v>
+        <v>0.04791796062425536</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>55.86633166666667</v>
+        <v>61.05023333333333</v>
       </c>
       <c r="H19">
-        <v>167.598995</v>
+        <v>183.1507</v>
       </c>
       <c r="I19">
-        <v>0.1912288185579471</v>
+        <v>0.1817687068867105</v>
       </c>
       <c r="J19">
-        <v>0.2170511393435526</v>
+        <v>0.2058095076729514</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.739354</v>
+        <v>18.25261</v>
       </c>
       <c r="N19">
-        <v>59.218062</v>
+        <v>54.75783</v>
       </c>
       <c r="O19">
-        <v>0.178099750077452</v>
+        <v>0.1446013226459285</v>
       </c>
       <c r="P19">
-        <v>0.1999732846939525</v>
+        <v>0.1624042160120632</v>
       </c>
       <c r="Q19">
-        <v>1102.765297449743</v>
+        <v>1114.326099442333</v>
       </c>
       <c r="R19">
-        <v>9924.887677047691</v>
+        <v>10028.934894981</v>
       </c>
       <c r="S19">
-        <v>0.0340578047927768</v>
+        <v>0.02628399543145842</v>
       </c>
       <c r="T19">
-        <v>0.04340442928109501</v>
+        <v>0.03342433174145438</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>49.7358395</v>
+        <v>60.130434</v>
       </c>
       <c r="H20">
-        <v>99.47167899999999</v>
+        <v>120.260868</v>
       </c>
       <c r="I20">
-        <v>0.1702443232593253</v>
+        <v>0.1790301303688714</v>
       </c>
       <c r="J20">
-        <v>0.1288220210351866</v>
+        <v>0.1351391506306107</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.353591</v>
+        <v>22.8952465</v>
       </c>
       <c r="N20">
-        <v>34.707182</v>
+        <v>45.790493</v>
       </c>
       <c r="O20">
-        <v>0.1565740307431703</v>
+        <v>0.1813813436108351</v>
       </c>
       <c r="P20">
-        <v>0.1172025721985097</v>
+        <v>0.1358083239688437</v>
       </c>
       <c r="Q20">
-        <v>863.0954167246446</v>
+        <v>1376.701108581981</v>
       </c>
       <c r="R20">
-        <v>3452.381666898578</v>
+        <v>5506.804434327923</v>
       </c>
       <c r="S20">
-        <v>0.02665583990385581</v>
+        <v>0.03247272559312887</v>
       </c>
       <c r="T20">
-        <v>0.01509827222113439</v>
+        <v>0.01835302154971635</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>49.7358395</v>
+        <v>60.130434</v>
       </c>
       <c r="H21">
-        <v>99.47167899999999</v>
+        <v>120.260868</v>
       </c>
       <c r="I21">
-        <v>0.1702443232593253</v>
+        <v>0.1790301303688714</v>
       </c>
       <c r="J21">
-        <v>0.1288220210351866</v>
+        <v>0.1351391506306107</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>62.005139</v>
       </c>
       <c r="O21">
-        <v>0.1864819513920883</v>
+        <v>0.1637395987066077</v>
       </c>
       <c r="P21">
-        <v>0.2093849561259721</v>
+        <v>0.1838987408378675</v>
       </c>
       <c r="Q21">
-        <v>1027.959213826397</v>
+        <v>1242.798639433442</v>
       </c>
       <c r="R21">
-        <v>6167.755282958381</v>
+        <v>7456.791836600652</v>
       </c>
       <c r="S21">
-        <v>0.03174749361482446</v>
+        <v>0.02931432170299067</v>
       </c>
       <c r="T21">
-        <v>0.0269733932225116</v>
+        <v>0.02485191963886822</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>49.7358395</v>
+        <v>60.130434</v>
       </c>
       <c r="H22">
-        <v>99.47167899999999</v>
+        <v>120.260868</v>
       </c>
       <c r="I22">
-        <v>0.1702443232593253</v>
+        <v>0.1790301303688714</v>
       </c>
       <c r="J22">
-        <v>0.1288220210351866</v>
+        <v>0.1351391506306107</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.84714766666667</v>
+        <v>19.627353</v>
       </c>
       <c r="N22">
-        <v>62.541443</v>
+        <v>58.882059</v>
       </c>
       <c r="O22">
-        <v>0.1880948986102114</v>
+        <v>0.1554923489757647</v>
       </c>
       <c r="P22">
-        <v>0.2111959993930501</v>
+        <v>0.1746361137589099</v>
       </c>
       <c r="Q22">
-        <v>1036.850390382133</v>
+        <v>1180.201254161202</v>
       </c>
       <c r="R22">
-        <v>6221.102342292796</v>
+        <v>7081.207524967212</v>
       </c>
       <c r="S22">
-        <v>0.03202208872242683</v>
+        <v>0.02783781550849321</v>
       </c>
       <c r="T22">
-        <v>0.02720669547635876</v>
+        <v>0.0236001760828098</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>49.7358395</v>
+        <v>60.130434</v>
       </c>
       <c r="H23">
-        <v>99.47167899999999</v>
+        <v>120.260868</v>
       </c>
       <c r="I23">
-        <v>0.1702443232593253</v>
+        <v>0.1790301303688714</v>
       </c>
       <c r="J23">
-        <v>0.1288220210351866</v>
+        <v>0.1351391506306107</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.015954</v>
+        <v>18.6161415</v>
       </c>
       <c r="N23">
-        <v>38.031908</v>
+        <v>37.232283</v>
       </c>
       <c r="O23">
-        <v>0.1715728212222307</v>
+        <v>0.1474813017680079</v>
       </c>
       <c r="P23">
-        <v>0.1284298288238175</v>
+        <v>0.110425846512805</v>
       </c>
       <c r="Q23">
-        <v>945.774436083383</v>
+        <v>1119.396667800411</v>
       </c>
       <c r="R23">
-        <v>3783.097744333532</v>
+        <v>4477.586671201643</v>
       </c>
       <c r="S23">
-        <v>0.02920929883867186</v>
+        <v>0.02640359668249733</v>
       </c>
       <c r="T23">
-        <v>0.01654459011028723</v>
+        <v>0.01492285510540665</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>49.7358395</v>
+        <v>60.130434</v>
       </c>
       <c r="H24">
-        <v>99.47167899999999</v>
+        <v>120.260868</v>
       </c>
       <c r="I24">
-        <v>0.1702443232593253</v>
+        <v>0.1790301303688714</v>
       </c>
       <c r="J24">
-        <v>0.1288220210351866</v>
+        <v>0.1351391506306107</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>13.20871066666667</v>
+        <v>26.16739966666667</v>
       </c>
       <c r="N24">
-        <v>39.626132</v>
+        <v>78.502199</v>
       </c>
       <c r="O24">
-        <v>0.1191765479548473</v>
+        <v>0.2073040842928561</v>
       </c>
       <c r="P24">
-        <v>0.1338133587646982</v>
+        <v>0.2328267589095107</v>
       </c>
       <c r="Q24">
-        <v>656.9463137192713</v>
+        <v>1573.457098608122</v>
       </c>
       <c r="R24">
-        <v>3941.677882315628</v>
+        <v>9440.742591648732</v>
       </c>
       <c r="S24">
-        <v>0.02028913075495551</v>
+        <v>0.03711367723694954</v>
       </c>
       <c r="T24">
-        <v>0.01723810731757492</v>
+        <v>0.03146401044310926</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>49.7358395</v>
+        <v>60.130434</v>
       </c>
       <c r="H25">
-        <v>99.47167899999999</v>
+        <v>120.260868</v>
       </c>
       <c r="I25">
-        <v>0.1702443232593253</v>
+        <v>0.1790301303688714</v>
       </c>
       <c r="J25">
-        <v>0.1288220210351866</v>
+        <v>0.1351391506306107</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.739354</v>
+        <v>18.25261</v>
       </c>
       <c r="N25">
-        <v>59.218062</v>
+        <v>54.75783</v>
       </c>
       <c r="O25">
-        <v>0.178099750077452</v>
+        <v>0.1446013226459285</v>
       </c>
       <c r="P25">
-        <v>0.1999732846939525</v>
+        <v>0.1624042160120632</v>
       </c>
       <c r="Q25">
-        <v>981.7533423776831</v>
+        <v>1097.53736093274</v>
       </c>
       <c r="R25">
-        <v>5890.520054266098</v>
+        <v>6585.22416559644</v>
       </c>
       <c r="S25">
-        <v>0.03032047142459078</v>
+        <v>0.02588799364481182</v>
       </c>
       <c r="T25">
-        <v>0.02576096268731971</v>
+        <v>0.02194716781070045</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.22208433333333</v>
+        <v>56.39865866666667</v>
       </c>
       <c r="H26">
-        <v>102.666253</v>
+        <v>169.195976</v>
       </c>
       <c r="I26">
-        <v>0.1171411932807908</v>
+        <v>0.1679192805048242</v>
       </c>
       <c r="J26">
-        <v>0.1329591933757325</v>
+        <v>0.1901283507013869</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.353591</v>
+        <v>22.8952465</v>
       </c>
       <c r="N26">
-        <v>34.707182</v>
+        <v>45.790493</v>
       </c>
       <c r="O26">
-        <v>0.1565740307431703</v>
+        <v>0.1813813436108351</v>
       </c>
       <c r="P26">
-        <v>0.1172025721985097</v>
+        <v>0.1358083239688437</v>
       </c>
       <c r="Q26">
-        <v>593.8760546881745</v>
+        <v>1291.261192442695</v>
       </c>
       <c r="R26">
-        <v>3563.256328129047</v>
+        <v>7747.567154656168</v>
       </c>
       <c r="S26">
-        <v>0.01834126879803819</v>
+        <v>0.03045742471612971</v>
       </c>
       <c r="T26">
-        <v>0.0155831594610749</v>
+        <v>0.02582101264771588</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>34.22208433333333</v>
+        <v>56.39865866666667</v>
       </c>
       <c r="H27">
-        <v>102.666253</v>
+        <v>169.195976</v>
       </c>
       <c r="I27">
-        <v>0.1171411932807908</v>
+        <v>0.1679192805048242</v>
       </c>
       <c r="J27">
-        <v>0.1329591933757325</v>
+        <v>0.1901283507013869</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>62.005139</v>
       </c>
       <c r="O27">
-        <v>0.1864819513920883</v>
+        <v>0.1637395987066077</v>
       </c>
       <c r="P27">
-        <v>0.2093849561259721</v>
+        <v>0.1838987408378675</v>
       </c>
       <c r="Q27">
-        <v>707.3150319860185</v>
+        <v>1165.668890013407</v>
       </c>
       <c r="R27">
-        <v>6365.835287874168</v>
+        <v>10491.02001012066</v>
       </c>
       <c r="S27">
-        <v>0.02184471831139966</v>
+        <v>0.0274950356049622</v>
       </c>
       <c r="T27">
-        <v>0.0278396548715224</v>
+        <v>0.03496436429156553</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>34.22208433333333</v>
+        <v>56.39865866666667</v>
       </c>
       <c r="H28">
-        <v>102.666253</v>
+        <v>169.195976</v>
       </c>
       <c r="I28">
-        <v>0.1171411932807908</v>
+        <v>0.1679192805048242</v>
       </c>
       <c r="J28">
-        <v>0.1329591933757325</v>
+        <v>0.1901283507013869</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>20.84714766666667</v>
+        <v>19.627353</v>
       </c>
       <c r="N28">
-        <v>62.541443</v>
+        <v>58.882059</v>
       </c>
       <c r="O28">
-        <v>0.1880948986102114</v>
+        <v>0.1554923489757647</v>
       </c>
       <c r="P28">
-        <v>0.2111959993930501</v>
+        <v>0.1746361137589099</v>
       </c>
       <c r="Q28">
-        <v>713.43284555812</v>
+        <v>1106.956382377176</v>
       </c>
       <c r="R28">
-        <v>6420.89561002308</v>
+        <v>9962.607441394584</v>
       </c>
       <c r="S28">
-        <v>0.02203366087322952</v>
+        <v>0.02611016336401544</v>
       </c>
       <c r="T28">
-        <v>0.02808044972348164</v>
+        <v>0.03320327628188133</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>34.22208433333333</v>
+        <v>56.39865866666667</v>
       </c>
       <c r="H29">
-        <v>102.666253</v>
+        <v>169.195976</v>
       </c>
       <c r="I29">
-        <v>0.1171411932807908</v>
+        <v>0.1679192805048242</v>
       </c>
       <c r="J29">
-        <v>0.1329591933757325</v>
+        <v>0.1901283507013869</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.015954</v>
+        <v>18.6161415</v>
       </c>
       <c r="N29">
-        <v>38.031908</v>
+        <v>37.232283</v>
       </c>
       <c r="O29">
-        <v>0.1715728212222307</v>
+        <v>0.1474813017680079</v>
       </c>
       <c r="P29">
-        <v>0.1284298288238175</v>
+        <v>0.110425846512805</v>
       </c>
       <c r="Q29">
-        <v>650.7655814667874</v>
+        <v>1049.925410148868</v>
       </c>
       <c r="R29">
-        <v>3904.593488800725</v>
+        <v>6299.552460893207</v>
       </c>
       <c r="S29">
-        <v>0.02009824501252389</v>
+        <v>0.02476495408079874</v>
       </c>
       <c r="T29">
-        <v>0.01707592644579817</v>
+        <v>0.02099508407228411</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>34.22208433333333</v>
+        <v>56.39865866666667</v>
       </c>
       <c r="H30">
-        <v>102.666253</v>
+        <v>169.195976</v>
       </c>
       <c r="I30">
-        <v>0.1171411932807908</v>
+        <v>0.1679192805048242</v>
       </c>
       <c r="J30">
-        <v>0.1329591933757325</v>
+        <v>0.1901283507013869</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>13.20871066666667</v>
+        <v>26.16739966666667</v>
       </c>
       <c r="N30">
-        <v>39.626132</v>
+        <v>78.502199</v>
       </c>
       <c r="O30">
-        <v>0.1191765479548473</v>
+        <v>0.2073040842928561</v>
       </c>
       <c r="P30">
-        <v>0.1338133587646982</v>
+        <v>0.2328267589095107</v>
       </c>
       <c r="Q30">
-        <v>452.0296103692663</v>
+        <v>1475.806241994581</v>
       </c>
       <c r="R30">
-        <v>4068.266493323396</v>
+        <v>13282.25617795123</v>
       </c>
       <c r="S30">
-        <v>0.01396048303851621</v>
+        <v>0.03481035268016781</v>
       </c>
       <c r="T30">
-        <v>0.01779171624425178</v>
+        <v>0.04426696767061471</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>34.22208433333333</v>
+        <v>56.39865866666667</v>
       </c>
       <c r="H31">
-        <v>102.666253</v>
+        <v>169.195976</v>
       </c>
       <c r="I31">
-        <v>0.1171411932807908</v>
+        <v>0.1679192805048242</v>
       </c>
       <c r="J31">
-        <v>0.1329591933757325</v>
+        <v>0.1901283507013869</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.739354</v>
+        <v>18.25261</v>
       </c>
       <c r="N31">
-        <v>59.218062</v>
+        <v>54.75783</v>
       </c>
       <c r="O31">
-        <v>0.178099750077452</v>
+        <v>0.1446013226459285</v>
       </c>
       <c r="P31">
-        <v>0.1999732846939525</v>
+        <v>0.1624042160120632</v>
       </c>
       <c r="Q31">
-        <v>675.5218372735208</v>
+        <v>1029.422721165787</v>
       </c>
       <c r="R31">
-        <v>6079.696535461687</v>
+        <v>9264.804490492081</v>
       </c>
       <c r="S31">
-        <v>0.02086281724708335</v>
+        <v>0.02428135005875025</v>
       </c>
       <c r="T31">
-        <v>0.02658828662960365</v>
+        <v>0.03087764573732535</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>50.71614066666667</v>
+        <v>53.64845133333333</v>
       </c>
       <c r="H32">
-        <v>152.148422</v>
+        <v>160.945354</v>
       </c>
       <c r="I32">
-        <v>0.1735998654676657</v>
+        <v>0.1597309149023391</v>
       </c>
       <c r="J32">
-        <v>0.1970416847930601</v>
+        <v>0.1808569886382574</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>17.353591</v>
+        <v>22.8952465</v>
       </c>
       <c r="N32">
-        <v>34.707182</v>
+        <v>45.790493</v>
       </c>
       <c r="O32">
-        <v>0.1565740307431703</v>
+        <v>0.1813813436108351</v>
       </c>
       <c r="P32">
-        <v>0.1172025721985097</v>
+        <v>0.1358083239688437</v>
       </c>
       <c r="Q32">
-        <v>880.1071622278008</v>
+        <v>1228.29451761992</v>
       </c>
       <c r="R32">
-        <v>5280.642973366805</v>
+        <v>7369.767105719521</v>
       </c>
       <c r="S32">
-        <v>0.02718123067274451</v>
+        <v>0.02897220796117424</v>
       </c>
       <c r="T32">
-        <v>0.02309379228807461</v>
+        <v>0.02456188450501394</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>50.71614066666667</v>
+        <v>53.64845133333333</v>
       </c>
       <c r="H33">
-        <v>152.148422</v>
+        <v>160.945354</v>
       </c>
       <c r="I33">
-        <v>0.1735998654676657</v>
+        <v>0.1597309149023391</v>
       </c>
       <c r="J33">
-        <v>0.1970416847930601</v>
+        <v>0.1808569886382574</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>62.005139</v>
       </c>
       <c r="O33">
-        <v>0.1864819513920883</v>
+        <v>0.1637395987066077</v>
       </c>
       <c r="P33">
-        <v>0.2093849561259721</v>
+        <v>0.1838987408378675</v>
       </c>
       <c r="Q33">
-        <v>1048.22045052674</v>
+        <v>1108.826560686023</v>
       </c>
       <c r="R33">
-        <v>9433.984054740658</v>
+        <v>9979.439046174204</v>
       </c>
       <c r="S33">
-        <v>0.0323732416738143</v>
+        <v>0.02615427590714831</v>
       </c>
       <c r="T33">
-        <v>0.0412575645253825</v>
+        <v>0.03325937248230403</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>50.71614066666667</v>
+        <v>53.64845133333333</v>
       </c>
       <c r="H34">
-        <v>152.148422</v>
+        <v>160.945354</v>
       </c>
       <c r="I34">
-        <v>0.1735998654676657</v>
+        <v>0.1597309149023391</v>
       </c>
       <c r="J34">
-        <v>0.1970416847930601</v>
+        <v>0.1808569886382574</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>20.84714766666667</v>
+        <v>19.627353</v>
       </c>
       <c r="N34">
-        <v>62.541443</v>
+        <v>58.882059</v>
       </c>
       <c r="O34">
-        <v>0.1880948986102114</v>
+        <v>0.1554923489757647</v>
       </c>
       <c r="P34">
-        <v>0.2111959993930501</v>
+        <v>0.1746361137589099</v>
       </c>
       <c r="Q34">
-        <v>1057.286873561439</v>
+        <v>1052.977092222654</v>
       </c>
       <c r="R34">
-        <v>9515.581862052946</v>
+        <v>9476.793830003884</v>
       </c>
       <c r="S34">
-        <v>0.03265324909388691</v>
+        <v>0.02483693516221269</v>
       </c>
       <c r="T34">
-        <v>0.04161441554196068</v>
+        <v>0.03158416164192459</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>50.71614066666667</v>
+        <v>53.64845133333333</v>
       </c>
       <c r="H35">
-        <v>152.148422</v>
+        <v>160.945354</v>
       </c>
       <c r="I35">
-        <v>0.1735998654676657</v>
+        <v>0.1597309149023391</v>
       </c>
       <c r="J35">
-        <v>0.1970416847930601</v>
+        <v>0.1808569886382574</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.015954</v>
+        <v>18.6161415</v>
       </c>
       <c r="N35">
-        <v>38.031908</v>
+        <v>37.232283</v>
       </c>
       <c r="O35">
-        <v>0.1715728212222307</v>
+        <v>0.1474813017680079</v>
       </c>
       <c r="P35">
-        <v>0.1284298288238175</v>
+        <v>0.110425846512805</v>
       </c>
       <c r="Q35">
-        <v>964.4157979748627</v>
+        <v>998.7271612771967</v>
       </c>
       <c r="R35">
-        <v>5786.494787849177</v>
+        <v>5992.362967663181</v>
       </c>
       <c r="S35">
-        <v>0.0297850186820871</v>
+        <v>0.02355732326239187</v>
       </c>
       <c r="T35">
-        <v>0.0253060298491293</v>
+        <v>0.01997128606813632</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>50.71614066666667</v>
+        <v>53.64845133333333</v>
       </c>
       <c r="H36">
-        <v>152.148422</v>
+        <v>160.945354</v>
       </c>
       <c r="I36">
-        <v>0.1735998654676657</v>
+        <v>0.1597309149023391</v>
       </c>
       <c r="J36">
-        <v>0.1970416847930601</v>
+        <v>0.1808569886382574</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>13.20871066666667</v>
+        <v>26.16739966666667</v>
       </c>
       <c r="N36">
-        <v>39.626132</v>
+        <v>78.502199</v>
       </c>
       <c r="O36">
-        <v>0.1191765479548473</v>
+        <v>0.2073040842928561</v>
       </c>
       <c r="P36">
-        <v>0.1338133587646982</v>
+        <v>0.2328267589095107</v>
       </c>
       <c r="Q36">
-        <v>669.8948281959671</v>
+        <v>1403.84046753705</v>
       </c>
       <c r="R36">
-        <v>6029.053453763704</v>
+        <v>12634.56420783345</v>
       </c>
       <c r="S36">
-        <v>0.02068903269186231</v>
+        <v>0.03311287104708954</v>
       </c>
       <c r="T36">
-        <v>0.02636680965881432</v>
+        <v>0.04210834649077966</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>50.71614066666667</v>
+        <v>53.64845133333333</v>
       </c>
       <c r="H37">
-        <v>152.148422</v>
+        <v>160.945354</v>
       </c>
       <c r="I37">
-        <v>0.1735998654676657</v>
+        <v>0.1597309149023391</v>
       </c>
       <c r="J37">
-        <v>0.1970416847930601</v>
+        <v>0.1808569886382574</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.739354</v>
+        <v>18.25261</v>
       </c>
       <c r="N37">
-        <v>59.218062</v>
+        <v>54.75783</v>
       </c>
       <c r="O37">
-        <v>0.178099750077452</v>
+        <v>0.1446013226459285</v>
       </c>
       <c r="P37">
-        <v>0.1999732846939525</v>
+        <v>0.1624042160120632</v>
       </c>
       <c r="Q37">
-        <v>1001.10385413313</v>
+        <v>979.2242592913133</v>
       </c>
       <c r="R37">
-        <v>9009.934687198165</v>
+        <v>8813.018333621818</v>
       </c>
       <c r="S37">
-        <v>0.03091809265327055</v>
+        <v>0.02309730156232249</v>
       </c>
       <c r="T37">
-        <v>0.03940307292969865</v>
+        <v>0.02937193745009881</v>
       </c>
     </row>
   </sheetData>
